--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154664.2784763793</v>
+        <v>152101.2581404746</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121.5957319570614</v>
+        <v>93.58753137643988</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>100.3302039710652</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>110.3838034696614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>110.4637346787656</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.116552656492</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>382.8987846277941</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>143.8843955160134</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>75.83438329824527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>275.7087445630216</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>214.0259953870928</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>32.30106318430011</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>75.70737290528214</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>27.24739666248344</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.10998325717217</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>74.99129529219145</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>20.43112068613923</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428348</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016435</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634823</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428253</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703275</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.33703994143047</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1318.32710127108</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="C2" t="n">
-        <v>949.3645843306683</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="D2" t="n">
-        <v>949.3645843306683</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="E2" t="n">
-        <v>563.576331732424</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="F2" t="n">
-        <v>152.5904269428165</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>152.5904269428165</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.290404920691</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1831.290404920691</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1441.151072944879</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
         <v>51.2467865680031</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1524.947328691001</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1235.53015865404</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1234.787393074839</v>
+        <v>681.0854746196774</v>
       </c>
       <c r="C5" t="n">
-        <v>1234.787393074839</v>
+        <v>681.0854746196774</v>
       </c>
       <c r="D5" t="n">
-        <v>1234.787393074839</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>848.9991404765947</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>438.0132356869871</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320765</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.926725050651</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.926725050651</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.787393074839</v>
+        <v>1067.685314683799</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
         <v>1967.526114878148</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>454.1085201488559</v>
+        <v>491.387600896805</v>
       </c>
       <c r="C7" t="n">
-        <v>454.1085201488559</v>
+        <v>491.387600896805</v>
       </c>
       <c r="D7" t="n">
-        <v>303.9918807365201</v>
+        <v>491.387600896805</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>343.4745073144119</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>196.5845598165015</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>196.5845598165015</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>673.0360657270447</v>
       </c>
       <c r="W7" t="n">
-        <v>758.6984582168179</v>
+        <v>673.0360657270447</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7089073188006</v>
+        <v>673.0360657270447</v>
       </c>
       <c r="Y7" t="n">
-        <v>454.1085201488559</v>
+        <v>673.0360657270447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2228.894479532451</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="C8" t="n">
-        <v>1859.93196259204</v>
+        <v>1488.848165855094</v>
       </c>
       <c r="D8" t="n">
-        <v>1501.666263985289</v>
+        <v>1130.582467248343</v>
       </c>
       <c r="E8" t="n">
-        <v>1115.878011387045</v>
+        <v>744.7942146500989</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>333.8083098604913</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4808,16 +4808,16 @@
         <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872921</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764998</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.894479532451</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.894479532451</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.894479532451</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>2228.894479532451</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>870.3292415458916</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N9" t="n">
-        <v>1861.380351120611</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2193.450786296773</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>251.8605878095226</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="C10" t="n">
-        <v>251.8605878095226</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>251.8605878095226</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093917</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880306</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6427178510701</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="X10" t="n">
-        <v>472.6531669530527</v>
+        <v>716.9590462041724</v>
       </c>
       <c r="Y10" t="n">
-        <v>251.8605878095226</v>
+        <v>496.1664670606423</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,13 +5033,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257327</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133969</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310038</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330935</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2188.359466111739</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1899.284239455937</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.59975125005</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.182581213089</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.193030315072</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400789</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038418</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797819</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910817</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832671</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487575</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510516</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854714</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648827</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611866</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138488</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703187</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6689,61 +6689,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438167</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121652</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121652</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703778</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969299</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7813,7 +7813,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="M3" t="n">
-        <v>211.0329012241552</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>294.834493518473</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>280.1079373569279</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>249.3877325071651</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.45443753892863</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.94575946518814</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>200.6883485913402</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.9994244361444</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462228</v>
+        <v>117.1847295890517</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>142.4141550350968</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465617</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>146.8157004124886</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864776</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194133</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194134</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406859</v>
+        <v>317255.876140686</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923203</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
         <v>343037.3048682527</v>
@@ -26329,31 +26329,31 @@
         <v>343037.3048682528</v>
       </c>
       <c r="H2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.304868253</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682525</v>
       </c>
       <c r="N2" t="n">
         <v>343037.3048682529</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682529</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.40260464529274e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91763.11654919828</v>
+        <v>91763.11654919849</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732076</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732091</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731984</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26445,19 +26445,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731894</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731893</v>
+        <v>8117.312426731962</v>
       </c>
       <c r="N4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731975</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.31242673192</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26497,16 +26497,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-982196.7964242768</v>
+        <v>-982383.1898128159</v>
       </c>
       <c r="C6" t="n">
         <v>121686.9794906119</v>
       </c>
       <c r="D6" t="n">
-        <v>121686.979490612</v>
+        <v>121686.9794906118</v>
       </c>
       <c r="E6" t="n">
-        <v>-273687.9790069321</v>
+        <v>-273722.716932368</v>
       </c>
       <c r="F6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.7246921779</v>
       </c>
       <c r="G6" t="n">
-        <v>233797.4626176135</v>
+        <v>233762.7246921781</v>
       </c>
       <c r="H6" t="n">
-        <v>233797.4626176135</v>
+        <v>233762.7246921776</v>
       </c>
       <c r="I6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.724692178</v>
       </c>
       <c r="J6" t="n">
-        <v>66192.28480763109</v>
+        <v>66157.54688219563</v>
       </c>
       <c r="K6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.724692178</v>
       </c>
       <c r="L6" t="n">
-        <v>233797.4626176135</v>
+        <v>233762.724692178</v>
       </c>
       <c r="M6" t="n">
-        <v>101190.1688886872</v>
+        <v>101155.4309632511</v>
       </c>
       <c r="N6" t="n">
-        <v>233797.4626176138</v>
+        <v>233762.7246921781</v>
       </c>
       <c r="O6" t="n">
-        <v>233797.4626176136</v>
+        <v>233762.724692178</v>
       </c>
       <c r="P6" t="n">
-        <v>233797.4626176135</v>
+        <v>233762.7246921781</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.584832100039</v>
       </c>
-      <c r="D4" t="n">
-        <v>640.5848321000391</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,16 +26817,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>261.1381097064192</v>
+        <v>234.2005508218526</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>141.7538398541666</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.5664889641909</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>28.64891814515988</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>3.367113639115416</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.7502700538495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>131.1673011786899</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>197.5217073858612</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>114.1328994622691</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>210.8156254313089</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7.517303009959066e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.517303009959066e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>487.5039436775321</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>695.2222086167877</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32807,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>490.5075832355672</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338196</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,31 +34211,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,37 +34442,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>338.130958502898</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>491.0077074256848</v>
       </c>
       <c r="M3" t="n">
-        <v>577.9642335061958</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,10 +34793,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>630.259175514596</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>577.7882979947781</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>256.133966662461</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>356.1622315941988</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334544</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096425</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>351.953203455693</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.7309431539454</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121313</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
